--- a/PADRÕES_LOCADOS.xlsx
+++ b/PADRÕES_LOCADOS.xlsx
@@ -598,7 +598,7 @@
     <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="29">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -802,29 +802,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -833,24 +812,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB4C5E7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1036,7 +997,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1046,42 +1007,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1207,7 +1142,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1219,129 +1154,129 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1359,16 +1294,13 @@
     <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1720,7 +1652,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="3"/>
@@ -2113,11 +2045,11 @@
       <c r="A28" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="11">
+      <c r="B28" s="9"/>
+      <c r="C28" s="10">
         <v>654</v>
       </c>
-      <c r="D28" s="12"/>
+      <c r="D28" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
